--- a/SOFTWARE/HMI/CPU_HMI_TEST/3-120844-00_EuroAsianFood_V00_00_02/3_120844-00_EuroAsianFood_HmiStruct_V00_00_03.xlsx
+++ b/SOFTWARE/HMI/CPU_HMI_TEST/3-120844-00_EuroAsianFood_V00_00_02/3_120844-00_EuroAsianFood_HmiStruct_V00_00_03.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\D\3-20844-00_EuroasiaFood_V00_00_02_20191105 (1)\3-20844-00_EuroasiaFood_V00_00_02_20191105\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilia\Desktop\AZO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="2910" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="2916" windowHeight="3780" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="HMI&lt;&gt;PLC" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ErrorList" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="413">
   <si>
     <t>reserve_4</t>
   </si>
@@ -322,9 +322,6 @@
     <t>IF_RECEIVER.STATUS.STATE.Stopped</t>
   </si>
   <si>
-    <t>IF_RECEIVER.STATUS.STATE.reserve_6</t>
-  </si>
-  <si>
     <t>0_1</t>
   </si>
   <si>
@@ -1211,6 +1208,63 @@
   </si>
   <si>
     <t>%DB1051.DBW146</t>
+  </si>
+  <si>
+    <t>DB34</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>NoStartCondition</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>FullReciver</t>
+  </si>
+  <si>
+    <t>AngleValve</t>
+  </si>
+  <si>
+    <t>NoPFCRecvest</t>
+  </si>
+  <si>
+    <t>NotEnoughtMaterial</t>
+  </si>
+  <si>
+    <t>FAValve</t>
+  </si>
+  <si>
+    <t>PressureFault</t>
+  </si>
+  <si>
+    <t>BrokenWire</t>
+  </si>
+  <si>
+    <t>ParameterError</t>
+  </si>
+  <si>
+    <t>Quittierung</t>
+  </si>
+  <si>
+    <t>DB35</t>
+  </si>
+  <si>
+    <t>i_x</t>
+  </si>
+  <si>
+    <t>OverPressure</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1426,6 +1480,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1708,34 +1768,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView topLeftCell="G25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="36.85546875" style="27" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.88671875" style="27" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="27" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>21</v>
@@ -1744,16 +1804,16 @@
       <c r="E1" s="12"/>
       <c r="F1" s="18"/>
       <c r="G1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="18"/>
       <c r="L1" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>27</v>
@@ -1762,66 +1822,66 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>114</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="16">
         <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="K2" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" s="16">
         <v>50</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="23" t="s">
-        <v>114</v>
-      </c>
       <c r="P2" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="9">
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="20"/>
@@ -1829,7 +1889,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1838,57 +1898,57 @@
         <v>50</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="9">
         <v>50.1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="9">
         <v>50.1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="9">
         <v>50.1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="9">
         <v>50.2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="14"/>
@@ -1897,10 +1957,10 @@
         <v>50.2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="21"/>
@@ -1908,21 +1968,21 @@
         <v>50.2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="9">
         <v>50.3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
@@ -1931,10 +1991,10 @@
         <v>50.3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="21"/>
@@ -1942,21 +2002,21 @@
         <v>50.3</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="9">
         <v>50.4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
@@ -1965,10 +2025,10 @@
         <v>50.4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="21"/>
@@ -1976,32 +2036,32 @@
         <v>50.4</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="9">
         <v>50.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="9">
         <v>50.5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2010,21 +2070,21 @@
         <v>50.5</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="9">
         <v>50.6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
@@ -2033,7 +2093,7 @@
         <v>50.6</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2042,21 +2102,21 @@
         <v>50.6</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="9">
         <v>50.7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
@@ -2065,7 +2125,7 @@
         <v>50.7</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2074,53 +2134,53 @@
         <v>50.7</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="21"/>
       <c r="G11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="21"/>
       <c r="L11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="9">
         <v>51.1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
@@ -2129,7 +2189,7 @@
         <v>51.1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2138,21 +2198,21 @@
         <v>51.1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="9">
         <v>51.2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
@@ -2161,7 +2221,7 @@
         <v>51.2</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2170,21 +2230,21 @@
         <v>51.2</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="9">
         <v>51.3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
@@ -2193,7 +2253,7 @@
         <v>51.3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2202,21 +2262,21 @@
         <v>51.3</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="9">
         <v>51.4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="14"/>
@@ -2225,7 +2285,7 @@
         <v>51.4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2234,21 +2294,21 @@
         <v>51.4</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="9">
         <v>51.5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="14"/>
@@ -2257,7 +2317,7 @@
         <v>51.5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2266,21 +2326,21 @@
         <v>51.5</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="9">
         <v>51.6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="14"/>
@@ -2289,7 +2349,7 @@
         <v>51.6</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2298,21 +2358,21 @@
         <v>51.6</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="9">
         <v>51.7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="14"/>
@@ -2321,7 +2381,7 @@
         <v>51.7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2330,19 +2390,19 @@
         <v>51.7</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="8">
         <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13"/>
@@ -2351,7 +2411,7 @@
         <v>52</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2360,36 +2420,36 @@
         <v>52</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="9">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="G20" s="17">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2398,547 +2458,547 @@
         <v>0</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="9">
         <v>52.1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="9">
         <v>52.2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N22" s="36" t="s">
         <v>335</v>
-      </c>
-      <c r="N22" s="36" t="s">
-        <v>336</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="9">
         <v>52.3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="9">
         <v>52.4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="9">
         <v>52.5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="9">
         <v>52.6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="9">
         <v>52.7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="18"/>
       <c r="G27" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="18"/>
       <c r="L27" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="12"/>
       <c r="F28" s="18"/>
       <c r="G28" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="18"/>
       <c r="L28" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="9">
         <v>53.1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="12"/>
       <c r="F29" s="18"/>
       <c r="G29" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="18"/>
       <c r="L29" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="9">
         <v>53.2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="12"/>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="18"/>
       <c r="L30" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="9">
         <v>53.3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="12"/>
       <c r="F31" s="18"/>
       <c r="G31" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="18"/>
       <c r="L31" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="9">
         <v>53.4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="12"/>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="18"/>
       <c r="L32" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="9">
         <v>53.5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="12"/>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="18"/>
       <c r="L33" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="9">
         <v>53.6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="12"/>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="18"/>
       <c r="L34" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="9">
         <v>53.7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="12"/>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="18"/>
       <c r="L35" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="8">
         <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="13"/>
@@ -2947,7 +3007,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -2956,7 +3016,7 @@
         <v>54</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -2964,493 +3024,493 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="21"/>
       <c r="L37" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N37" s="24"/>
       <c r="O37" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="21"/>
       <c r="L38" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="21"/>
       <c r="L39" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="14"/>
       <c r="F40" s="21"/>
       <c r="G40" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="21"/>
       <c r="L40" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N40" s="24"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="14"/>
       <c r="F41" s="21"/>
       <c r="G41" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="21"/>
       <c r="L41" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="14"/>
       <c r="F42" s="21"/>
       <c r="G42" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="21"/>
       <c r="L42" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N42" s="24"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="14"/>
       <c r="F43" s="21"/>
       <c r="G43" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="21"/>
       <c r="L43" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N43" s="24"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="14"/>
       <c r="F44" s="21"/>
       <c r="G44" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="21"/>
       <c r="L44" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N44" s="24"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="21"/>
       <c r="L45" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N45" s="24"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="14"/>
       <c r="F46" s="21"/>
       <c r="G46" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="21"/>
       <c r="L46" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="14"/>
       <c r="F47" s="21"/>
       <c r="G47" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="21"/>
       <c r="L47" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N47" s="24"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="14"/>
       <c r="F48" s="21"/>
       <c r="G48" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="21"/>
       <c r="L48" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N48" s="24"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="14"/>
       <c r="F49" s="21"/>
       <c r="G49" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="21"/>
       <c r="L49" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N49" s="24"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="14"/>
       <c r="F50" s="21"/>
       <c r="G50" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="21"/>
       <c r="L50" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N50" s="24"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="14"/>
       <c r="F51" s="21"/>
       <c r="G51" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="21"/>
       <c r="L51" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N51" s="25"/>
       <c r="O51" s="5"/>
@@ -3458,9 +3518,9 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
@@ -3480,13 +3540,13 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="8">
         <v>100</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="13"/>
@@ -3495,7 +3555,7 @@
         <v>100</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -3504,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N53" s="26"/>
       <c r="O53" s="23"/>
@@ -3512,558 +3572,558 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="18"/>
       <c r="L54" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="18"/>
       <c r="L55" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N55" s="24"/>
       <c r="O55" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="18"/>
       <c r="L56" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N56" s="24"/>
       <c r="O56" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="12"/>
       <c r="F57" s="18"/>
       <c r="G57" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="18"/>
       <c r="L57" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N57" s="24"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="12"/>
       <c r="F58" s="18"/>
       <c r="G58" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="18"/>
       <c r="L58" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="12"/>
       <c r="F59" s="18"/>
       <c r="G59" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="18"/>
       <c r="L59" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N59" s="24"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="12"/>
       <c r="F60" s="18"/>
       <c r="G60" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="18"/>
       <c r="L60" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="12"/>
       <c r="F61" s="18"/>
       <c r="G61" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="18"/>
       <c r="L61" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N61" s="24"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="18"/>
       <c r="L62" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="12"/>
       <c r="F63" s="18"/>
       <c r="G63" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="18"/>
       <c r="L63" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N63" s="24"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="12"/>
       <c r="F64" s="18"/>
       <c r="G64" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="18"/>
       <c r="L64" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N64" s="24"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="12"/>
       <c r="F65" s="18"/>
       <c r="G65" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="18"/>
       <c r="L65" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="12"/>
       <c r="F66" s="18"/>
       <c r="G66" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="18"/>
       <c r="L66" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N66" s="24"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="12"/>
       <c r="F67" s="18"/>
       <c r="G67" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="18"/>
       <c r="L67" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N67" s="24"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="14"/>
       <c r="F68" s="21"/>
       <c r="G68" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="21"/>
       <c r="L68" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
       <c r="G69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="10"/>
       <c r="D70" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D71" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D72" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E72" s="32">
         <v>252</v>
       </c>
       <c r="F72" s="32"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D73" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E73" s="32">
         <v>256</v>
       </c>
       <c r="F73" s="32"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D74" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E74" s="32">
         <v>260</v>
       </c>
       <c r="F74" s="32"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
@@ -4081,26 +4141,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B99" sqref="B99:B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4123,7 +4183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4146,7 +4206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4169,7 +4229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4192,7 +4252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4215,7 +4275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -4241,7 +4301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -4264,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4290,7 +4350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4316,7 +4376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4342,7 +4402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4368,7 +4428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4394,7 +4454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4420,7 +4480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4446,7 +4506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4472,7 +4532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4498,7 +4558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
@@ -4524,7 +4584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -4550,7 +4610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13</v>
       </c>
@@ -4576,7 +4636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -4602,7 +4662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15</v>
       </c>
@@ -4628,7 +4688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>16</v>
       </c>
@@ -4654,7 +4714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>17</v>
       </c>
@@ -4671,7 +4731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4697,7 +4757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4723,7 +4783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4734,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -4749,7 +4809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4775,7 +4835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4801,7 +4861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4827,7 +4887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4853,7 +4913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -4879,7 +4939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10</v>
       </c>
@@ -4905,7 +4965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11</v>
       </c>
@@ -4931,7 +4991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -4957,7 +5017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>13</v>
       </c>
@@ -4983,7 +5043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -5009,7 +5069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>15</v>
       </c>
@@ -5035,7 +5095,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16</v>
       </c>
@@ -5058,10 +5118,10 @@
         <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17</v>
       </c>
@@ -5084,7 +5144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -5110,7 +5170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5133,7 +5193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -5156,7 +5216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -5179,7 +5239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10</v>
       </c>
@@ -5202,7 +5262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12</v>
       </c>
@@ -5225,7 +5285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -5248,7 +5308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -5256,7 +5316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5264,7 +5324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5272,7 +5332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -5280,7 +5340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -5288,7 +5348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -5296,7 +5356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -5304,7 +5364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7</v>
       </c>
@@ -5312,7 +5372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -5320,7 +5380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>11</v>
       </c>
@@ -5328,7 +5388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -5336,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13</v>
       </c>
@@ -5344,7 +5404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -5352,7 +5412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -5360,7 +5420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>16</v>
       </c>
@@ -5368,12 +5428,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -5381,7 +5441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -5389,7 +5449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5397,7 +5457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8</v>
       </c>
@@ -5405,7 +5465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>10</v>
       </c>
@@ -5413,7 +5473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -5421,7 +5481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>14</v>
       </c>
@@ -5429,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -5437,7 +5497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5445,7 +5505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -5453,149 +5513,149 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5606,24 +5666,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="F2" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>411</v>
+      </c>
+      <c r="I9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I10" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>